--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DC083-BCD2-402B-9D30-64AF8C19B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8ED94-D3FA-4FED-BCBF-2C717049F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Keyword</t>
   </si>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>64</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -796,31 +796,42 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -834,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A53AC5-BB71-4D87-83E7-6EF4A9D8C7C7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
